--- a/SLNO.xlsx
+++ b/SLNO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA7F943-FC84-4E1C-B8F8-528BB2B6059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DDDE9-75FC-477C-BD8A-FA6A0E2F0921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51490" yWindow="1710" windowWidth="25060" windowHeight="11160" activeTab="2" xr2:uid="{477A73C8-0DDD-4193-B12A-402B07A14853}"/>
+    <workbookView xWindow="59070" yWindow="5710" windowWidth="17370" windowHeight="13000" activeTab="2" xr2:uid="{477A73C8-0DDD-4193-B12A-402B07A14853}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2271A713-5935-45F5-8BB8-EF88403E62D7}</author>
+    <author>tc={E32CB68A-EC75-4D6F-A0BF-72293D93F29C}</author>
+    <author>tc={80F68FE4-CCE7-4504-BBD5-970CCE33487C}</author>
+  </authors>
+  <commentList>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{2271A713-5935-45F5-8BB8-EF88403E62D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    62.85m consensus 11/4/25</t>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="1" shapeId="0" xr:uid="{E32CB68A-EC75-4D6F-A0BF-72293D93F29C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    73.29m consensus 11/4/25</t>
+      </text>
+    </comment>
+    <comment ref="Q7" authorId="2" shapeId="0" xr:uid="{80F68FE4-CCE7-4504-BBD5-970CCE33487C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 404m 11/4/25</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -122,13 +158,61 @@
   </si>
   <si>
     <t>Prevalence</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -140,6 +224,19 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -250,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -276,6 +373,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -294,6 +408,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30655</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30655</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE2E8C-E977-553F-F698-E1151F3541DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5828862" y="39414"/>
+          <a:ext cx="0" cy="4541345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{4F90E6E4-070B-45A9-A3B3-0C19BAD0290F}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,6 +786,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J7" dT="2025-11-04T22:34:01.09" personId="{4F90E6E4-070B-45A9-A3B3-0C19BAD0290F}" id="{2271A713-5935-45F5-8BB8-EF88403E62D7}">
+    <text>62.85m consensus 11/4/25</text>
+  </threadedComment>
+  <threadedComment ref="K7" dT="2025-11-04T22:34:17.51" personId="{4F90E6E4-070B-45A9-A3B3-0C19BAD0290F}" id="{E32CB68A-EC75-4D6F-A0BF-72293D93F29C}">
+    <text>73.29m consensus 11/4/25</text>
+  </threadedComment>
+  <threadedComment ref="Q7" dT="2025-11-04T22:35:00.44" personId="{4F90E6E4-070B-45A9-A3B3-0C19BAD0290F}" id="{80F68FE4-CCE7-4504-BBD5-970CCE33487C}">
+    <text>Consensus 404m 11/4/25</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F52EE98-472D-41A7-BE97-A667D3867873}">
   <dimension ref="B2:K10"/>
@@ -796,222 +985,610 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F9C73-DE62-41EA-85D1-0BBC92E2F7EA}">
-  <dimension ref="A1:T13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F9C73-DE62-41EA-85D1-0BBC92E2F7EA}">
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="8.90625" style="3" customWidth="1"/>
-    <col min="9" max="20" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="8.7265625" style="3"/>
+    <col min="16" max="16" width="8.90625" style="3" customWidth="1"/>
+    <col min="17" max="28" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3">
+      <c r="K2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="3">
         <v>2025</v>
       </c>
-      <c r="I2" s="3">
-        <f>+H2+1</f>
+      <c r="Q2" s="3">
+        <f>+P2+1</f>
         <v>2026</v>
       </c>
-      <c r="J2" s="3">
-        <f t="shared" ref="J2:T2" si="0">+I2+1</f>
+      <c r="R2" s="3">
+        <f t="shared" ref="R2:AB2" si="0">+Q2+1</f>
         <v>2027</v>
       </c>
-      <c r="K2" s="3">
+      <c r="S2" s="3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="L2" s="3">
+      <c r="T2" s="3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="M2" s="3">
+      <c r="U2" s="3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="N2" s="3">
+      <c r="V2" s="3">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="O2" s="3">
+      <c r="W2" s="3">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="P2" s="3">
+      <c r="X2" s="3">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Y2" s="3">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="R2" s="3">
+      <c r="Z2" s="3">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="S2" s="3">
+      <c r="AA2" s="3">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="T2" s="3">
+      <c r="AB2" s="3">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="16">
+      <c r="P3" s="16">
         <f>350000/30</f>
         <v>11666.666666666666</v>
       </c>
-      <c r="I3" s="16">
-        <f t="shared" ref="I3:O3" si="1">350000/30</f>
+      <c r="Q3" s="16">
+        <f t="shared" ref="Q3:W3" si="1">350000/30</f>
         <v>11666.666666666666</v>
       </c>
-      <c r="J3" s="16">
+      <c r="R3" s="16">
         <f t="shared" si="1"/>
         <v>11666.666666666666</v>
       </c>
-      <c r="K3" s="16">
+      <c r="S3" s="16">
         <f t="shared" si="1"/>
         <v>11666.666666666666</v>
       </c>
-      <c r="L3" s="16">
+      <c r="T3" s="16">
         <f t="shared" si="1"/>
         <v>11666.666666666666</v>
       </c>
-      <c r="M3" s="16">
+      <c r="U3" s="16">
         <f t="shared" si="1"/>
         <v>11666.666666666666</v>
       </c>
-      <c r="N3" s="16">
+      <c r="V3" s="16">
         <f t="shared" si="1"/>
         <v>11666.666666666666</v>
       </c>
-      <c r="O3" s="16">
+      <c r="W3" s="16">
         <f t="shared" si="1"/>
         <v>11666.666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I4" s="23">
+        <f>+I7/I6</f>
+        <v>8.6387434554973816E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <f>+I4</f>
+        <v>8.6387434554973816E-2</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" ref="K4:N4" si="2">+J4</f>
+        <v>8.6387434554973816E-2</v>
+      </c>
+      <c r="L4" s="23">
+        <f t="shared" si="2"/>
+        <v>8.6387434554973816E-2</v>
+      </c>
+      <c r="M4" s="23">
+        <f t="shared" si="2"/>
+        <v>8.6387434554973816E-2</v>
+      </c>
+      <c r="N4" s="23">
+        <f t="shared" si="2"/>
+        <v>8.6387434554973816E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3">
+        <f>646-G5</f>
+        <v>646</v>
+      </c>
+      <c r="I5" s="3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
+        <v>764</v>
+      </c>
+      <c r="J6" s="16">
+        <f>+I6+400</f>
+        <v>1164</v>
+      </c>
+      <c r="K6" s="16">
+        <f>+J6+300</f>
+        <v>1464</v>
+      </c>
+      <c r="L6" s="16">
+        <f>+K6+300</f>
+        <v>1764</v>
+      </c>
+      <c r="M6" s="16">
+        <f>+L6+300</f>
+        <v>2064</v>
+      </c>
+      <c r="N6" s="16">
+        <f>+M6+300</f>
+        <v>2364</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
+        <v>32.656999999999996</v>
+      </c>
+      <c r="I7" s="18">
+        <v>66</v>
+      </c>
+      <c r="J7" s="19">
+        <f>+J6*J4</f>
+        <v>100.55497382198952</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" ref="K7:N7" si="3">+K6*K4</f>
+        <v>126.47120418848166</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="3"/>
+        <v>152.38743455497382</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="3"/>
+        <v>178.30366492146595</v>
+      </c>
+      <c r="N7" s="19">
+        <f t="shared" si="3"/>
+        <v>204.21989528795811</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19">
         <v>300</v>
       </c>
-      <c r="I6" s="16">
-        <v>900</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1500</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1800</v>
-      </c>
-      <c r="L6" s="16">
-        <v>2100</v>
-      </c>
-      <c r="M6" s="16">
-        <v>2200</v>
-      </c>
-      <c r="N6" s="16">
-        <v>2300</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="Q7" s="19">
+        <f>SUM(K7:N7)</f>
+        <v>661.38219895287955</v>
+      </c>
+      <c r="R7" s="19">
+        <f>+Q7*1.3</f>
+        <v>859.7968586387434</v>
+      </c>
+      <c r="S7" s="19">
+        <f>+R7*1.3</f>
+        <v>1117.7359162303665</v>
+      </c>
+      <c r="T7" s="19">
+        <f>+S7*1.01</f>
+        <v>1128.9132753926701</v>
+      </c>
+      <c r="U7" s="19">
+        <f>+T7*1.01</f>
+        <v>1140.2024081465968</v>
+      </c>
+      <c r="V7" s="19">
+        <f>+U7*1.01</f>
+        <v>1151.6044322280627</v>
+      </c>
+      <c r="W7" s="19">
         <v>800</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+    </row>
+    <row r="8" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+    </row>
+    <row r="9" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22">
+        <f>+H7-H8</f>
+        <v>31.960999999999995</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+    </row>
+    <row r="10" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22">
+        <v>9.1470000000000002</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+    </row>
+    <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22">
+        <v>28.238</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+    </row>
+    <row r="12" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22">
+        <f>+H11+H10</f>
+        <v>37.384999999999998</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" ref="I12" si="4">+I11+I10</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+    </row>
+    <row r="13" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22">
+        <f>+H9-H12</f>
+        <v>-5.424000000000003</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" ref="I13" si="5">+I9-I12</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="16">
-        <f>+H6*0.7</f>
+      <c r="P15" s="16">
+        <f>+P7*0.7</f>
         <v>210</v>
       </c>
-      <c r="I7" s="16">
-        <f t="shared" ref="I7:O7" si="2">+I6*0.7</f>
-        <v>630</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="2"/>
-        <v>1050</v>
-      </c>
-      <c r="K7" s="16">
-        <f t="shared" si="2"/>
-        <v>1260</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="2"/>
-        <v>1470</v>
-      </c>
-      <c r="M7" s="16">
-        <f t="shared" si="2"/>
-        <v>1540</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" si="2"/>
-        <v>1610</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="16">
+        <f t="shared" ref="Q15:W15" si="6">+Q7*0.7</f>
+        <v>462.96753926701564</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" si="6"/>
+        <v>601.85780104712035</v>
+      </c>
+      <c r="S15" s="16">
+        <f t="shared" si="6"/>
+        <v>782.41514136125647</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="6"/>
+        <v>790.239292774869</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="6"/>
+        <v>798.14168570261768</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="6"/>
+        <v>806.12310255964383</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="6"/>
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H11" s="3" t="s">
+    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="14">
+      <c r="Q19" s="14">
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H12" s="3" t="s">
+    <row r="20" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="16">
-        <f>NPV(I11,H7:O7)</f>
-        <v>5461.7484382899638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H13" s="3" t="s">
+      <c r="Q20" s="16">
+        <f>NPV(Q19,P15:W15)</f>
+        <v>3312.8875165071136</v>
+      </c>
+    </row>
+    <row r="21" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="15">
-        <f>+I12/46</f>
-        <v>118.73366170195574</v>
+      <c r="Q21" s="15">
+        <f>+Q20/46</f>
+        <v>72.019293837111164</v>
       </c>
     </row>
   </sheetData>
@@ -1019,5 +1596,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D89C553B-FA88-4A91-8A74-35171BA91406}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>